--- a/final project/Inventory.xlsx
+++ b/final project/Inventory.xlsx
@@ -427,7 +427,7 @@
         <v>7</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>

--- a/final project/Inventory.xlsx
+++ b/final project/Inventory.xlsx
@@ -427,7 +427,7 @@
         <v>7</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>367</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -467,7 +467,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>756</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -507,7 +507,7 @@
         <v>13</v>
       </c>
       <c r="D6">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>

--- a/final project/Inventory.xlsx
+++ b/final project/Inventory.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emiliazorin\Desktop\yesodotnew\Group2_Yesodot\final project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD30DF64-CBBC-4746-AB4F-40B59A52FE65}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="inventory1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="61">
   <si>
     <t>product code</t>
   </si>
@@ -34,42 +40,180 @@
     <t xml:space="preserve">price </t>
   </si>
   <si>
-    <t>shirts</t>
-  </si>
-  <si>
-    <t>s/m/l</t>
+    <t>T-shirts</t>
+  </si>
+  <si>
+    <t>xxs/xs/s/m/l/xl/xxl</t>
   </si>
   <si>
     <t>black</t>
   </si>
   <si>
+    <t>blouses</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>tank tops</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>bodies</t>
+  </si>
+  <si>
+    <t>pink</t>
+  </si>
+  <si>
+    <t>crop tops</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>jumpers</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>sweatshirts</t>
+  </si>
+  <si>
+    <t>brown</t>
+  </si>
+  <si>
+    <t>hoodies</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
     <t>jeans</t>
   </si>
   <si>
+    <t>shorts</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>pants</t>
+  </si>
+  <si>
+    <t>skirts</t>
+  </si>
+  <si>
+    <t>dresses</t>
+  </si>
+  <si>
+    <t>blazers</t>
+  </si>
+  <si>
     <t>shoes</t>
   </si>
   <si>
+    <t>35-40</t>
+  </si>
+  <si>
+    <t>trainers</t>
+  </si>
+  <si>
+    <t>boots</t>
+  </si>
+  <si>
+    <t>sandals</t>
+  </si>
+  <si>
+    <t>grey</t>
+  </si>
+  <si>
+    <t>activewear</t>
+  </si>
+  <si>
+    <t>bras</t>
+  </si>
+  <si>
+    <t>underpants</t>
+  </si>
+  <si>
+    <t>purple</t>
+  </si>
+  <si>
+    <t>swinsuits</t>
+  </si>
+  <si>
     <t>coats</t>
   </si>
   <si>
-    <t>shirt</t>
-  </si>
-  <si>
-    <t>s/m</t>
-  </si>
-  <si>
-    <t>red</t>
+    <t>jackets</t>
+  </si>
+  <si>
+    <t>nightwear</t>
+  </si>
+  <si>
+    <t>playsuits</t>
+  </si>
+  <si>
+    <t>loungewear</t>
+  </si>
+  <si>
+    <t>socks</t>
+  </si>
+  <si>
+    <t>leggings</t>
+  </si>
+  <si>
+    <t>cardigans</t>
+  </si>
+  <si>
+    <t>while</t>
+  </si>
+  <si>
+    <t>hats</t>
+  </si>
+  <si>
+    <t>24.9</t>
+  </si>
+  <si>
+    <t>slipers</t>
+  </si>
+  <si>
+    <t>25.9</t>
+  </si>
+  <si>
+    <t>tights</t>
+  </si>
+  <si>
+    <t>19.9</t>
+  </si>
+  <si>
+    <t>ties</t>
+  </si>
+  <si>
+    <t>onesize</t>
+  </si>
+  <si>
+    <t>15.9</t>
+  </si>
+  <si>
+    <t>glasses</t>
+  </si>
+  <si>
+    <t>9.9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -102,11 +246,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -148,7 +300,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -180,9 +332,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -214,6 +384,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -389,14 +577,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -416,7 +606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -427,16 +617,16 @@
         <v>7</v>
       </c>
       <c r="D2">
-        <v>367</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2">
-        <v>89.90000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -447,93 +637,673 @@
         <v>7</v>
       </c>
       <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
       <c r="F3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>119.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4">
-        <v>756</v>
+        <v>100</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F4">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F5">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D6">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F6">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>199.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+      <c r="E14" t="s">
         <v>14</v>
       </c>
-      <c r="F7">
+      <c r="F14">
+        <v>75.900000000000006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>100</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>129.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16">
+        <v>100</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <v>499.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17">
+        <v>100</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17">
+        <v>599.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18">
+        <v>100</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18">
+        <v>399.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19">
+        <v>100</v>
+      </c>
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19">
+        <v>189.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>100</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20">
         <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>100</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>100</v>
+      </c>
+      <c r="E22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>100</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23">
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <v>100</v>
+      </c>
+      <c r="E24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24">
+        <v>699.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>100</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25">
+        <v>129.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <v>100</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26">
+        <v>89.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>100</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27">
+        <v>79.900000000000006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <v>100</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28">
+        <v>49.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>100</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <v>100</v>
+      </c>
+      <c r="E30" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31">
+        <v>100</v>
+      </c>
+      <c r="E31" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31">
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>100</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33">
+        <v>100</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34">
+        <v>100</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35">
+        <v>100</v>
+      </c>
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36">
+        <v>100</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/final project/Inventory.xlsx
+++ b/final project/Inventory.xlsx
@@ -585,7 +585,7 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -785,7 +785,7 @@
         <v>7</v>
       </c>
       <c r="D13">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>

--- a/final project/Inventory.xlsx
+++ b/final project/Inventory.xlsx
@@ -565,7 +565,7 @@
         <v>7</v>
       </c>
       <c r="D2">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -585,7 +585,7 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <v>95</v>
+        <v>450</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -605,7 +605,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -785,7 +785,7 @@
         <v>7</v>
       </c>
       <c r="D13">
-        <v>99</v>
+        <v>339</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>

--- a/final project/Inventory.xlsx
+++ b/final project/Inventory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="58">
   <si>
     <t>product code</t>
   </si>
@@ -61,60 +61,57 @@
     <t>pink</t>
   </si>
   <si>
-    <t>crop tops</t>
+    <t>jumpers</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>sweatshirts</t>
+  </si>
+  <si>
+    <t>brown</t>
+  </si>
+  <si>
+    <t>hoodies</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>jeans</t>
+  </si>
+  <si>
+    <t>shorts</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>pants</t>
+  </si>
+  <si>
+    <t>skirts</t>
+  </si>
+  <si>
+    <t>dresses</t>
+  </si>
+  <si>
+    <t>blazers</t>
+  </si>
+  <si>
+    <t>shoes</t>
+  </si>
+  <si>
+    <t>35-40</t>
+  </si>
+  <si>
+    <t>trainers</t>
   </si>
   <si>
     <t>yellow</t>
   </si>
   <si>
-    <t>jumpers</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>sweatshirts</t>
-  </si>
-  <si>
-    <t>brown</t>
-  </si>
-  <si>
-    <t>hoodies</t>
-  </si>
-  <si>
-    <t>green</t>
-  </si>
-  <si>
-    <t>jeans</t>
-  </si>
-  <si>
-    <t>shorts</t>
-  </si>
-  <si>
-    <t>orange</t>
-  </si>
-  <si>
-    <t>pants</t>
-  </si>
-  <si>
-    <t>skirts</t>
-  </si>
-  <si>
-    <t>dresses</t>
-  </si>
-  <si>
-    <t>blazers</t>
-  </si>
-  <si>
-    <t>shoes</t>
-  </si>
-  <si>
-    <t>35-40</t>
-  </si>
-  <si>
-    <t>trainers</t>
-  </si>
-  <si>
     <t>boots</t>
   </si>
   <si>
@@ -191,12 +188,6 @@
   </si>
   <si>
     <t>15.9</t>
-  </si>
-  <si>
-    <t>glasses</t>
-  </si>
-  <si>
-    <t>9.9</t>
   </si>
 </sst>
 </file>
@@ -528,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -636,7 +627,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -651,12 +642,12 @@
         <v>16</v>
       </c>
       <c r="F6">
-        <v>35</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -676,7 +667,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -691,12 +682,12 @@
         <v>20</v>
       </c>
       <c r="F8">
-        <v>149</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
@@ -708,35 +699,35 @@
         <v>100</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F9">
-        <v>120</v>
+        <v>199.8</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>100</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
       <c r="F10">
-        <v>199.8</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -748,58 +739,58 @@
         <v>100</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F11">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
       </c>
       <c r="D12">
-        <v>100</v>
+        <v>339</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F12">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
       </c>
       <c r="D13">
-        <v>339</v>
+        <v>100</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F13">
-        <v>80</v>
+        <v>75.90000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -808,115 +799,115 @@
         <v>100</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F14">
-        <v>75.90000000000001</v>
+        <v>129.9</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
         <v>29</v>
       </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
       <c r="D15">
         <v>100</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F15">
-        <v>129.9</v>
+        <v>499.9</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
       </c>
       <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16">
+        <v>100</v>
+      </c>
+      <c r="E16" t="s">
         <v>31</v>
       </c>
-      <c r="D16">
-        <v>100</v>
-      </c>
-      <c r="E16" t="s">
-        <v>12</v>
-      </c>
       <c r="F16">
-        <v>499.9</v>
+        <v>599.9</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
         <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D17">
         <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F17">
-        <v>599.9</v>
+        <v>399.9</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D18">
         <v>100</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="F18">
-        <v>399.9</v>
+        <v>189.9</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D19">
         <v>100</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F19">
-        <v>189.9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
         <v>36</v>
@@ -931,12 +922,12 @@
         <v>14</v>
       </c>
       <c r="F20">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
         <v>37</v>
@@ -948,7 +939,7 @@
         <v>100</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="F21">
         <v>40</v>
@@ -956,10 +947,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
@@ -968,15 +959,15 @@
         <v>100</v>
       </c>
       <c r="E22" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F22">
-        <v>40</v>
+        <v>199.9</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>40</v>
@@ -988,15 +979,15 @@
         <v>100</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F23">
-        <v>199.9</v>
+        <v>699.8</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>41</v>
@@ -1008,15 +999,15 @@
         <v>100</v>
       </c>
       <c r="E24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F24">
-        <v>699.8</v>
+        <v>129.9</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
         <v>42</v>
@@ -1028,15 +1019,15 @@
         <v>100</v>
       </c>
       <c r="E25" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F25">
-        <v>129.9</v>
+        <v>89.90000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
         <v>43</v>
@@ -1048,15 +1039,15 @@
         <v>100</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F26">
-        <v>89.90000000000001</v>
+        <v>79.90000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
         <v>44</v>
@@ -1068,15 +1059,15 @@
         <v>100</v>
       </c>
       <c r="E27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F27">
-        <v>79.90000000000001</v>
+        <v>49.9</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
         <v>45</v>
@@ -1088,15 +1079,15 @@
         <v>100</v>
       </c>
       <c r="E28" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F28">
-        <v>49.9</v>
+        <v>19.9</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
         <v>46</v>
@@ -1108,7 +1099,7 @@
         <v>100</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F29">
         <v>19.9</v>
@@ -1116,7 +1107,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
         <v>47</v>
@@ -1128,18 +1119,18 @@
         <v>100</v>
       </c>
       <c r="E30" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F30">
-        <v>19.9</v>
+        <v>199.9</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C31" t="s">
         <v>7</v>
@@ -1148,110 +1139,70 @@
         <v>100</v>
       </c>
       <c r="E31" t="s">
-        <v>49</v>
-      </c>
-      <c r="F31">
-        <v>199.9</v>
+        <v>8</v>
+      </c>
+      <c r="F31" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="D32">
         <v>100</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D33">
         <v>100</v>
       </c>
       <c r="E33" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="D34">
         <v>100</v>
       </c>
       <c r="E34" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35" t="s">
         <v>57</v>
-      </c>
-      <c r="D35">
-        <v>100</v>
-      </c>
-      <c r="E35" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>59</v>
-      </c>
-      <c r="C36" t="s">
-        <v>57</v>
-      </c>
-      <c r="D36">
-        <v>100</v>
-      </c>
-      <c r="E36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/final project/Inventory.xlsx
+++ b/final project/Inventory.xlsx
@@ -556,7 +556,7 @@
         <v>7</v>
       </c>
       <c r="D2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>

--- a/final project/Inventory.xlsx
+++ b/final project/Inventory.xlsx
@@ -556,7 +556,7 @@
         <v>7</v>
       </c>
       <c r="D2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
